--- a/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56700,7 +56701,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -56716,6 +56716,106 @@
       </c>
       <c r="H363" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>191.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>324</v>
+      </c>
+      <c r="D3" t="n">
+        <v>201.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>454</v>
+      </c>
+      <c r="D4" t="n">
+        <v>234.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>189.34</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56729,7 +56730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56740,17 +56741,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -56760,14 +56781,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>362</v>
-      </c>
-      <c r="D2" t="n">
-        <v>191.65</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.2665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -56776,14 +56819,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>324</v>
-      </c>
-      <c r="D3" t="n">
-        <v>201.47</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.8063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -56792,14 +56857,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>454</v>
-      </c>
-      <c r="D4" t="n">
-        <v>234.97</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.2694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -56808,13 +56895,9526 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>134.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.8278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2453</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3502</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2808</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3970</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1979</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>110.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.0231</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9184</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5946</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3910</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3180</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2513</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2268</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1296</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0590</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0525</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0314</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9834</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8794</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7047</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5893</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4528</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>53.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>53.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002779</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>新疆前海联合新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002778</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>新疆前海联合新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>502006</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>007276</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>007275</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>012873</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>251</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>191.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>324</v>
+      </c>
+      <c r="D4" t="n">
+        <v>201.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>454</v>
+      </c>
+      <c r="D5" t="n">
+        <v>234.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>338</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>189.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
+++ b/数据整理/stocks/A股/上证主板/600309-万华化学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66313,7 +66314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66324,17 +66325,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -66344,14 +66365,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>251</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143.11</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -66360,14 +66403,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>362</v>
-      </c>
-      <c r="D3" t="n">
-        <v>191.65</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -66376,14 +66441,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>201.47</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -66392,14 +66479,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>454</v>
-      </c>
-      <c r="D5" t="n">
-        <v>234.97</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -66408,13 +66517,7224 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7341</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6844</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2467</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1720</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7413</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2814</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2801</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0734</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9770</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8809</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7173</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6090</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5912</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5806</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4848</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002778</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>新疆前海联合新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002779</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>新疆前海联合新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>251</v>
+      </c>
+      <c r="D3" t="n">
+        <v>143.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>362</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D5" t="n">
+        <v>201.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>454</v>
+      </c>
+      <c r="D6" t="n">
+        <v>234.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>338</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>189.34</v>
       </c>
     </row>
